--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Quick Heal Technologies Ltd/Pruned_Excel/Semi_Final/Quick Heal Technologies Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Quick Heal Technologies Ltd/Pruned_Excel/Semi_Final/Quick Heal Technologies Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="105">
   <si>
     <t>Balance Sheet of Quick Heal Technologies(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,46 +62,49 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Quick Heal Technologies(in Rs. Cr.)</t>
@@ -197,9 +203,6 @@
     <t>Quarterly Results of Quick Heal Technologies(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -255,39 +258,6 @@
   </si>
   <si>
     <t>Diluted eps.</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -720,13 +690,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,578 +736,623 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
         <v>7.62</v>
-      </c>
-      <c r="C2">
-        <v>135.74</v>
       </c>
       <c r="D2">
         <v>135.74</v>
       </c>
       <c r="E2">
+        <v>135.74</v>
+      </c>
+      <c r="F2">
         <v>143.36</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.82</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>17.05</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>160.79</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>14.35</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>16.71</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>47.94</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>112.85</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>160.79</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
         <v>7.63</v>
-      </c>
-      <c r="C3">
-        <v>202.71</v>
       </c>
       <c r="D3">
         <v>202.71</v>
       </c>
       <c r="E3">
+        <v>202.71</v>
+      </c>
+      <c r="F3">
         <v>210.34</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2.59</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>18.83</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>229.59</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>17.96</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>42.69</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>51.78</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>177.8</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>229.59</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
         <v>7.63</v>
-      </c>
-      <c r="C4">
-        <v>278.02</v>
       </c>
       <c r="D4">
         <v>278.02</v>
       </c>
       <c r="E4">
+        <v>278.02</v>
+      </c>
+      <c r="F4">
         <v>285.65</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4.22</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>28.33</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>314.5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>31.4</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>67.37</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>79.01000000000001</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>235.49</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>314.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
         <v>61.07</v>
-      </c>
-      <c r="C5">
-        <v>275.08</v>
       </c>
       <c r="D5">
         <v>275.08</v>
       </c>
       <c r="E5">
+        <v>275.08</v>
+      </c>
+      <c r="F5">
         <v>336.15</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5.26</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>46.87</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>383.01</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>63.19</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>137.11</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>160.91</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>222.11</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>383.01</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
         <v>61.07</v>
-      </c>
-      <c r="C6">
-        <v>276.56</v>
       </c>
       <c r="D6">
         <v>276.56</v>
       </c>
       <c r="E6">
+        <v>276.56</v>
+      </c>
+      <c r="F6">
         <v>337.63</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>7.46</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>96.05</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>433.68</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>100.11</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>184.7</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>216.57</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>217.11</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>433.68</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
         <v>70.03</v>
-      </c>
-      <c r="C7">
-        <v>547.53</v>
       </c>
       <c r="D7">
         <v>547.53</v>
       </c>
       <c r="E7">
+        <v>547.53</v>
+      </c>
+      <c r="F7">
         <v>617.5599999999999</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>14.23</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>108</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>725.5599999999999</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>132.15</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>196.55</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>238.45</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>487.11</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>725.5599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
         <v>70.09999999999999</v>
-      </c>
-      <c r="C8">
-        <v>608.9400000000001</v>
       </c>
       <c r="D8">
         <v>608.9400000000001</v>
       </c>
       <c r="E8">
+        <v>608.9400000000001</v>
+      </c>
+      <c r="F8">
         <v>679.05</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>28.59</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>69.19</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>750.51</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>178.07</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>198.17</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>268.19</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>482.32</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>750.51</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
         <v>70.39</v>
-      </c>
-      <c r="C9">
-        <v>666.74</v>
       </c>
       <c r="D9">
         <v>666.74</v>
       </c>
       <c r="E9">
+        <v>666.74</v>
+      </c>
+      <c r="F9">
         <v>737.13</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>22.2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>54.48</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>793.71</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>161.1</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>186.8</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>231.21</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>562.5</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>793.71</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
         <v>70.56</v>
-      </c>
-      <c r="C10">
-        <v>724.3099999999999</v>
       </c>
       <c r="D10">
         <v>724.3099999999999</v>
       </c>
       <c r="E10">
+        <v>724.3099999999999</v>
+      </c>
+      <c r="F10">
         <v>794.88</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>19.99</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>58.47</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>857.15</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>156.97</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>175.29</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>230</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>627.16</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>857.15</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
         <v>64.2</v>
-      </c>
-      <c r="C11">
-        <v>584.01</v>
       </c>
       <c r="D11">
         <v>584.01</v>
       </c>
       <c r="E11">
+        <v>584.01</v>
+      </c>
+      <c r="F11">
         <v>648.21</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>10.98</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>49.34</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>699.98</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>148.48</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>161.84</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>227.92</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>472.06</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>699.98</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
         <v>64.20999999999999</v>
-      </c>
-      <c r="C12">
-        <v>691.6</v>
       </c>
       <c r="D12">
         <v>691.6</v>
       </c>
       <c r="E12">
+        <v>691.6</v>
+      </c>
+      <c r="F12">
         <v>755.8</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>23.92</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>73.63</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>830.63</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>140.45</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>147.82</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>207.4</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>623.23</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>830.63</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
         <v>58.01</v>
-      </c>
-      <c r="C13">
-        <v>569.2</v>
       </c>
       <c r="D13">
         <v>569.2</v>
       </c>
       <c r="E13">
+        <v>569.2</v>
+      </c>
+      <c r="F13">
         <v>627.21</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>20.89</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>86.63</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>715.89</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>105.94</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>137.02</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>184.22</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>531.67</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>715.89</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
         <v>53.07</v>
-      </c>
-      <c r="C14">
-        <v>357.14</v>
       </c>
       <c r="D14">
         <v>357.14</v>
       </c>
       <c r="E14">
+        <v>357.14</v>
+      </c>
+      <c r="F14">
         <v>419.72</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>22.84</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>71.52</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>492.89</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>97.56999999999999</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>124.61</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>170.65</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>322.24</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>492.89</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
         <v>53.51</v>
-      </c>
-      <c r="C15">
-        <v>373.43</v>
       </c>
       <c r="D15">
         <v>373.43</v>
       </c>
       <c r="E15">
+        <v>373.43</v>
+      </c>
+      <c r="F15">
         <v>436.9</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>33.28</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>73.38</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>512.61</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>83.61</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>119.78</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>149.63</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>362.98</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>512.61</v>
       </c>
     </row>
@@ -1348,444 +1363,489 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>56.96</v>
+      </c>
+      <c r="D2">
+        <v>20.19</v>
+      </c>
+      <c r="E2">
+        <v>-50.3</v>
+      </c>
+      <c r="F2">
+        <v>30.54</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.43</v>
+      </c>
+      <c r="I2">
+        <v>5.77</v>
+      </c>
+      <c r="J2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>99.23999999999999</v>
+      </c>
+      <c r="D3">
+        <v>48.73</v>
+      </c>
+      <c r="E3">
+        <v>-52.41</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>-3.68</v>
+      </c>
+      <c r="I3">
+        <v>6.2</v>
+      </c>
+      <c r="J3">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>111.11</v>
+      </c>
+      <c r="D4">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="E4">
+        <v>-63.4</v>
+      </c>
+      <c r="F4">
+        <v>-1.33</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3.44</v>
+      </c>
+      <c r="I4">
+        <v>2.52</v>
+      </c>
+      <c r="J4">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>89.2</v>
+      </c>
+      <c r="D5">
+        <v>62.75</v>
+      </c>
+      <c r="E5">
+        <v>-62.52</v>
+      </c>
+      <c r="F5">
+        <v>-2.23</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-2.01</v>
+      </c>
+      <c r="I5">
+        <v>5.97</v>
+      </c>
+      <c r="J5">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>82.31</v>
+      </c>
+      <c r="D6">
+        <v>78.11</v>
+      </c>
+      <c r="E6">
+        <v>-57.36</v>
+      </c>
+      <c r="F6">
+        <v>-17.5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.25</v>
+      </c>
+      <c r="I6">
+        <v>3.96</v>
+      </c>
+      <c r="J6">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>93.01000000000001</v>
+      </c>
+      <c r="D7">
+        <v>81.33</v>
+      </c>
+      <c r="E7">
+        <v>-167.3</v>
+      </c>
+      <c r="F7">
+        <v>189.48</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>103.52</v>
+      </c>
+      <c r="I7">
+        <v>7.21</v>
+      </c>
+      <c r="J7">
+        <v>110.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="D8">
+        <v>49.79</v>
+      </c>
+      <c r="E8">
+        <v>-89.87</v>
+      </c>
+      <c r="F8">
+        <v>-20.48</v>
+      </c>
+      <c r="G8">
+        <v>-0.04</v>
+      </c>
+      <c r="H8">
+        <v>-60.61</v>
+      </c>
+      <c r="I8">
+        <v>110.72</v>
+      </c>
+      <c r="J8">
+        <v>50.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>119.22</v>
+      </c>
+      <c r="D9">
+        <v>95.59</v>
+      </c>
+      <c r="E9">
+        <v>-118.84</v>
+      </c>
+      <c r="F9">
+        <v>-18.53</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-41.77</v>
+      </c>
+      <c r="I9">
+        <v>50.12</v>
+      </c>
+      <c r="J9">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>129.07</v>
+      </c>
+      <c r="D10">
+        <v>62.61</v>
+      </c>
+      <c r="E10">
+        <v>-38.97</v>
+      </c>
+      <c r="F10">
+        <v>-23.98</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>-0.34</v>
+      </c>
+      <c r="I10">
+        <v>8.35</v>
+      </c>
+      <c r="J10">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>100.44</v>
+      </c>
+      <c r="D11">
+        <v>70.78</v>
+      </c>
+      <c r="E11">
+        <v>146.22</v>
+      </c>
+      <c r="F11">
+        <v>-221.41</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-4.41</v>
+      </c>
+      <c r="I11">
+        <v>7.96</v>
+      </c>
+      <c r="J11">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>145.84</v>
+      </c>
+      <c r="D12">
+        <v>100.57</v>
+      </c>
+      <c r="E12">
+        <v>-94.69</v>
+      </c>
+      <c r="F12">
+        <v>0.1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>5.98</v>
+      </c>
+      <c r="I12">
+        <v>3.56</v>
+      </c>
+      <c r="J12">
+        <v>9.539999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>103.56</v>
+      </c>
+      <c r="D13">
+        <v>79.06</v>
+      </c>
+      <c r="E13">
+        <v>129.55</v>
+      </c>
+      <c r="F13">
+        <v>-214.14</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>-5.53</v>
+      </c>
+      <c r="I13">
+        <v>9.5</v>
+      </c>
+      <c r="J13">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="D14">
+        <v>30.99</v>
+      </c>
+      <c r="E14">
+        <v>187.5</v>
+      </c>
+      <c r="F14">
+        <v>-212.17</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.32</v>
+      </c>
+      <c r="I14">
+        <v>3.97</v>
+      </c>
+      <c r="J14">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>56.96</v>
-      </c>
-      <c r="C2">
-        <v>20.19</v>
-      </c>
-      <c r="D2">
-        <v>-50.3</v>
-      </c>
-      <c r="E2">
-        <v>30.54</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.43</v>
-      </c>
-      <c r="H2">
-        <v>5.77</v>
-      </c>
-      <c r="I2">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>99.23999999999999</v>
-      </c>
-      <c r="C3">
-        <v>48.73</v>
-      </c>
-      <c r="D3">
-        <v>-52.41</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>-3.68</v>
-      </c>
-      <c r="H3">
-        <v>6.2</v>
-      </c>
-      <c r="I3">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>111.11</v>
-      </c>
-      <c r="C4">
-        <v>68.18000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-63.4</v>
-      </c>
-      <c r="E4">
-        <v>-1.33</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>3.44</v>
-      </c>
-      <c r="H4">
-        <v>2.52</v>
-      </c>
-      <c r="I4">
-        <v>5.97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>89.2</v>
-      </c>
-      <c r="C5">
-        <v>62.75</v>
-      </c>
-      <c r="D5">
-        <v>-62.52</v>
-      </c>
-      <c r="E5">
-        <v>-2.23</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>-2.01</v>
-      </c>
-      <c r="H5">
-        <v>5.97</v>
-      </c>
-      <c r="I5">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>82.31</v>
-      </c>
-      <c r="C6">
-        <v>78.11</v>
-      </c>
-      <c r="D6">
-        <v>-57.36</v>
-      </c>
-      <c r="E6">
-        <v>-17.5</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>3.25</v>
-      </c>
-      <c r="H6">
-        <v>3.96</v>
-      </c>
-      <c r="I6">
-        <v>7.21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>93.01000000000001</v>
-      </c>
-      <c r="C7">
-        <v>81.33</v>
-      </c>
-      <c r="D7">
-        <v>-167.3</v>
-      </c>
-      <c r="E7">
-        <v>189.48</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>103.52</v>
-      </c>
-      <c r="H7">
-        <v>7.21</v>
-      </c>
-      <c r="I7">
-        <v>110.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>89.73999999999999</v>
-      </c>
-      <c r="C8">
-        <v>49.79</v>
-      </c>
-      <c r="D8">
-        <v>-89.87</v>
-      </c>
-      <c r="E8">
-        <v>-20.48</v>
-      </c>
-      <c r="F8">
-        <v>-0.04</v>
-      </c>
-      <c r="G8">
-        <v>-60.61</v>
-      </c>
-      <c r="H8">
-        <v>110.72</v>
-      </c>
-      <c r="I8">
-        <v>50.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>119.22</v>
-      </c>
-      <c r="C9">
-        <v>95.59</v>
-      </c>
-      <c r="D9">
-        <v>-118.84</v>
-      </c>
-      <c r="E9">
-        <v>-18.53</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>-41.77</v>
-      </c>
-      <c r="H9">
-        <v>50.12</v>
-      </c>
-      <c r="I9">
-        <v>8.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>129.07</v>
-      </c>
-      <c r="C10">
-        <v>62.61</v>
-      </c>
-      <c r="D10">
-        <v>-38.97</v>
-      </c>
-      <c r="E10">
-        <v>-23.98</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>-0.34</v>
-      </c>
-      <c r="H10">
-        <v>8.35</v>
-      </c>
-      <c r="I10">
-        <v>8.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>100.44</v>
-      </c>
-      <c r="C11">
-        <v>70.78</v>
-      </c>
-      <c r="D11">
-        <v>146.22</v>
-      </c>
-      <c r="E11">
-        <v>-221.41</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>-4.41</v>
-      </c>
-      <c r="H11">
-        <v>7.96</v>
-      </c>
-      <c r="I11">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>145.84</v>
-      </c>
-      <c r="C12">
-        <v>100.57</v>
-      </c>
-      <c r="D12">
-        <v>-94.69</v>
-      </c>
-      <c r="E12">
-        <v>0.1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>5.98</v>
-      </c>
-      <c r="H12">
-        <v>3.56</v>
-      </c>
-      <c r="I12">
-        <v>9.539999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>103.56</v>
-      </c>
-      <c r="C13">
-        <v>79.06</v>
-      </c>
-      <c r="D13">
-        <v>129.55</v>
-      </c>
-      <c r="E13">
-        <v>-214.14</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>-5.53</v>
-      </c>
-      <c r="H13">
-        <v>9.5</v>
-      </c>
-      <c r="I13">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="C14">
-        <v>30.99</v>
-      </c>
-      <c r="D14">
-        <v>187.5</v>
-      </c>
-      <c r="E14">
-        <v>-212.17</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>6.32</v>
-      </c>
-      <c r="H14">
-        <v>3.97</v>
-      </c>
-      <c r="I14">
+      <c r="C15">
+        <v>26.04</v>
+      </c>
+      <c r="D15">
+        <v>18.42</v>
+      </c>
+      <c r="E15">
+        <v>6.15</v>
+      </c>
+      <c r="F15">
+        <v>1.6</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>26.17</v>
+      </c>
+      <c r="I15">
         <v>10.29</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>26.04</v>
-      </c>
-      <c r="C15">
-        <v>18.42</v>
-      </c>
-      <c r="D15">
-        <v>6.15</v>
-      </c>
-      <c r="E15">
-        <v>1.6</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>26.17</v>
-      </c>
-      <c r="H15">
-        <v>10.29</v>
-      </c>
-      <c r="I15">
+      <c r="J15">
         <v>36.46</v>
       </c>
     </row>
@@ -1796,134 +1856,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>58</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
         <v>143.63</v>
-      </c>
-      <c r="C2">
-        <v>130.73</v>
       </c>
       <c r="D2">
         <v>130.73</v>
       </c>
       <c r="E2">
+        <v>130.73</v>
+      </c>
+      <c r="F2">
         <v>2.39</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>133.11</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>15.61</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.16</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.43</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>51.96</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>76.16</v>
-      </c>
-      <c r="M2">
-        <v>56.96</v>
       </c>
       <c r="N2">
         <v>56.96</v>
       </c>
       <c r="O2">
+        <v>56.96</v>
+      </c>
+      <c r="P2">
         <v>17.09</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1.29</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>18.38</v>
-      </c>
-      <c r="R2">
-        <v>38.58</v>
       </c>
       <c r="S2">
         <v>38.58</v>
@@ -1932,66 +1995,69 @@
         <v>38.58</v>
       </c>
       <c r="U2">
-        <v>6.48</v>
+        <v>38.58</v>
       </c>
       <c r="V2">
         <v>6.48</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
         <v>179.07</v>
-      </c>
-      <c r="C3">
-        <v>178.98</v>
       </c>
       <c r="D3">
         <v>178.98</v>
       </c>
       <c r="E3">
+        <v>178.98</v>
+      </c>
+      <c r="F3">
         <v>5.68</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>184.66</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>20.68</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>2.13</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>54.1</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>85.42</v>
-      </c>
-      <c r="M3">
-        <v>99.23999999999999</v>
       </c>
       <c r="N3">
         <v>99.23999999999999</v>
       </c>
       <c r="O3">
+        <v>99.23999999999999</v>
+      </c>
+      <c r="P3">
         <v>31.09</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.05</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>31.04</v>
-      </c>
-      <c r="R3">
-        <v>68.2</v>
       </c>
       <c r="S3">
         <v>68.2</v>
@@ -2000,66 +2066,69 @@
         <v>68.2</v>
       </c>
       <c r="U3">
-        <v>11.17</v>
+        <v>68.2</v>
       </c>
       <c r="V3">
         <v>11.17</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
         <v>204.89</v>
-      </c>
-      <c r="C4">
-        <v>204.88</v>
       </c>
       <c r="D4">
         <v>204.88</v>
       </c>
       <c r="E4">
+        <v>204.88</v>
+      </c>
+      <c r="F4">
         <v>9.75</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>214.63</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>28.16</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>4.44</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>61.43</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>103.52</v>
-      </c>
-      <c r="M4">
-        <v>111.11</v>
       </c>
       <c r="N4">
         <v>111.11</v>
       </c>
       <c r="O4">
+        <v>111.11</v>
+      </c>
+      <c r="P4">
         <v>33.11</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.46</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>33.57</v>
-      </c>
-      <c r="R4">
-        <v>77.54000000000001</v>
       </c>
       <c r="S4">
         <v>77.54000000000001</v>
@@ -2068,86 +2137,92 @@
         <v>77.54000000000001</v>
       </c>
       <c r="U4">
-        <v>12.7</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="V4">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
         <v>243.91</v>
-      </c>
-      <c r="C5">
-        <v>243.9</v>
       </c>
       <c r="D5">
         <v>243.9</v>
       </c>
       <c r="E5">
+        <v>243.9</v>
+      </c>
+      <c r="F5">
         <v>9.85</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>253.75</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>42.52</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>10.8</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>82.92</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>147.22</v>
-      </c>
-      <c r="M5">
-        <v>106.53</v>
       </c>
       <c r="N5">
         <v>106.53</v>
       </c>
       <c r="O5">
+        <v>106.53</v>
+      </c>
+      <c r="P5">
         <v>32.09</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-4.44</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>27.65</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>78.88</v>
-      </c>
-      <c r="S5">
-        <v>61.55</v>
       </c>
       <c r="T5">
         <v>61.55</v>
       </c>
       <c r="U5">
+        <v>61.55</v>
+      </c>
+      <c r="V5">
         <v>10.08</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>9.94</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>284.07</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
       </c>
       <c r="C6">
         <v>284.07</v>
@@ -2156,46 +2231,46 @@
         <v>284.07</v>
       </c>
       <c r="E6">
+        <v>284.07</v>
+      </c>
+      <c r="F6">
         <v>8.18</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>292.25</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>62.56</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>20.18</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>112.55</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>209.94</v>
-      </c>
-      <c r="M6">
-        <v>82.31</v>
       </c>
       <c r="N6">
         <v>82.31</v>
       </c>
       <c r="O6">
+        <v>82.31</v>
+      </c>
+      <c r="P6">
         <v>26.93</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-0.92</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>26.01</v>
-      </c>
-      <c r="R6">
-        <v>56.3</v>
       </c>
       <c r="S6">
         <v>56.3</v>
@@ -2204,18 +2279,21 @@
         <v>56.3</v>
       </c>
       <c r="U6">
+        <v>56.3</v>
+      </c>
+      <c r="V6">
         <v>9.220000000000001</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>9.09</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>334.47</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
       </c>
       <c r="C7">
         <v>334.47</v>
@@ -2224,46 +2302,46 @@
         <v>334.47</v>
       </c>
       <c r="E7">
+        <v>334.47</v>
+      </c>
+      <c r="F7">
         <v>9.35</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>343.82</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>83.28</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>23.68</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>129.49</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>250.81</v>
-      </c>
-      <c r="M7">
-        <v>93.01000000000001</v>
       </c>
       <c r="N7">
         <v>93.01000000000001</v>
       </c>
       <c r="O7">
+        <v>93.01000000000001</v>
+      </c>
+      <c r="P7">
         <v>32.46</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-2.31</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>30.15</v>
-      </c>
-      <c r="R7">
-        <v>62.86</v>
       </c>
       <c r="S7">
         <v>62.86</v>
@@ -2272,18 +2350,21 @@
         <v>62.86</v>
       </c>
       <c r="U7">
-        <v>10.08</v>
+        <v>62.86</v>
       </c>
       <c r="V7">
         <v>10.08</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>299.02</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
       </c>
       <c r="C8">
         <v>299.02</v>
@@ -2292,46 +2373,46 @@
         <v>299.02</v>
       </c>
       <c r="E8">
+        <v>299.02</v>
+      </c>
+      <c r="F8">
         <v>27.78</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>326.8</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>98.76000000000001</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>30.87</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>89.83</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>232.64</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>94.16</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>89.73999999999999</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>31.76</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-1.01</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>30.57</v>
-      </c>
-      <c r="R8">
-        <v>59.17</v>
       </c>
       <c r="S8">
         <v>59.17</v>
@@ -2340,18 +2421,21 @@
         <v>59.17</v>
       </c>
       <c r="U8">
+        <v>59.17</v>
+      </c>
+      <c r="V8">
         <v>8.449999999999999</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>8.4</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>316.22</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
       </c>
       <c r="C9">
         <v>316.22</v>
@@ -2360,46 +2444,46 @@
         <v>316.22</v>
       </c>
       <c r="E9">
+        <v>316.22</v>
+      </c>
+      <c r="F9">
         <v>29.88</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>346.1</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>99.68000000000001</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>26.88</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>80.16</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>219.37</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>126.72</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>119.22</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>36.37</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>3.97</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>40.34</v>
-      </c>
-      <c r="R9">
-        <v>78.88</v>
       </c>
       <c r="S9">
         <v>78.88</v>
@@ -2408,18 +2492,21 @@
         <v>78.88</v>
       </c>
       <c r="U9">
+        <v>78.88</v>
+      </c>
+      <c r="V9">
         <v>11.23</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>11.2</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>312.9</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
       </c>
       <c r="C10">
         <v>312.9</v>
@@ -2428,46 +2515,46 @@
         <v>312.9</v>
       </c>
       <c r="E10">
+        <v>312.9</v>
+      </c>
+      <c r="F10">
         <v>32.5</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>345.4</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>11.43</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>97.14</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>23.53</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>73.45999999999999</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>207.02</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>138.39</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>129.07</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>49.24</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-4.13</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>45.11</v>
-      </c>
-      <c r="R10">
-        <v>83.95999999999999</v>
       </c>
       <c r="S10">
         <v>83.95999999999999</v>
@@ -2476,18 +2563,21 @@
         <v>83.95999999999999</v>
       </c>
       <c r="U10">
+        <v>83.95999999999999</v>
+      </c>
+      <c r="V10">
         <v>11.91</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>11.9</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>283.4</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
       </c>
       <c r="C11">
         <v>283.4</v>
@@ -2496,46 +2586,46 @@
         <v>283.4</v>
       </c>
       <c r="E11">
+        <v>283.4</v>
+      </c>
+      <c r="F11">
         <v>31.34</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>314.75</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>9.59</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>99.98999999999999</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>21.66</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>81.54000000000001</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>211.99</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>102.76</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>100.44</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>21.05</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>5.76</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>26.8</v>
-      </c>
-      <c r="R11">
-        <v>73.64</v>
       </c>
       <c r="S11">
         <v>73.64</v>
@@ -2544,18 +2634,21 @@
         <v>73.64</v>
       </c>
       <c r="U11">
+        <v>73.64</v>
+      </c>
+      <c r="V11">
         <v>11.23</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>11.22</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>333.53</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
       </c>
       <c r="C12">
         <v>333.53</v>
@@ -2564,46 +2657,46 @@
         <v>333.53</v>
       </c>
       <c r="E12">
+        <v>333.53</v>
+      </c>
+      <c r="F12">
         <v>23.94</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>357.47</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>8.050000000000001</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>113.2</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>19.48</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>67.59</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>211.63</v>
-      </c>
-      <c r="M12">
-        <v>145.84</v>
       </c>
       <c r="N12">
         <v>145.84</v>
       </c>
       <c r="O12">
+        <v>145.84</v>
+      </c>
+      <c r="P12">
         <v>33.92</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>3.36</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>39.04</v>
-      </c>
-      <c r="R12">
-        <v>106.79</v>
       </c>
       <c r="S12">
         <v>106.79</v>
@@ -2612,18 +2705,21 @@
         <v>106.79</v>
       </c>
       <c r="U12">
+        <v>106.79</v>
+      </c>
+      <c r="V12">
         <v>16.64</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>16.62</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>341.55</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
       </c>
       <c r="C13">
         <v>341.55</v>
@@ -2632,46 +2728,46 @@
         <v>341.55</v>
       </c>
       <c r="E13">
+        <v>341.55</v>
+      </c>
+      <c r="F13">
         <v>19.17</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>360.72</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>13.3</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>138.34</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>17.38</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>84.97</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>253.1</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>107.62</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>103.56</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>25.76</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-1.04</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>25.37</v>
-      </c>
-      <c r="R13">
-        <v>78.19</v>
       </c>
       <c r="S13">
         <v>78.19</v>
@@ -2680,18 +2776,21 @@
         <v>78.19</v>
       </c>
       <c r="U13">
+        <v>78.19</v>
+      </c>
+      <c r="V13">
         <v>13.17</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>13.1</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>278.11</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
       </c>
       <c r="C14">
         <v>278.11</v>
@@ -2700,46 +2799,46 @@
         <v>278.11</v>
       </c>
       <c r="E14">
+        <v>278.11</v>
+      </c>
+      <c r="F14">
         <v>22.38</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>300.49</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>7.83</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>154.89</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>15.99</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>111.09</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>291.3</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>9.19</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>9.289999999999999</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1.25</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.48</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1.59</v>
-      </c>
-      <c r="R14">
-        <v>7.7</v>
       </c>
       <c r="S14">
         <v>7.7</v>
@@ -2748,18 +2847,21 @@
         <v>7.7</v>
       </c>
       <c r="U14">
-        <v>1.38</v>
+        <v>7.7</v>
       </c>
       <c r="V14">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>291.75</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
       </c>
       <c r="C15">
         <v>291.75</v>
@@ -2768,46 +2870,46 @@
         <v>291.75</v>
       </c>
       <c r="E15">
+        <v>291.75</v>
+      </c>
+      <c r="F15">
         <v>21.37</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>313.12</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>5.13</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>168.94</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.13</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>12.6</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>98.58</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>287.08</v>
-      </c>
-      <c r="M15">
-        <v>26.04</v>
       </c>
       <c r="N15">
         <v>26.04</v>
       </c>
       <c r="O15">
+        <v>26.04</v>
+      </c>
+      <c r="P15">
         <v>5.78</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-3.88</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1.97</v>
-      </c>
-      <c r="R15">
-        <v>24.07</v>
       </c>
       <c r="S15">
         <v>24.07</v>
@@ -2816,9 +2918,12 @@
         <v>24.07</v>
       </c>
       <c r="U15">
+        <v>24.07</v>
+      </c>
+      <c r="V15">
         <v>4.52</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>4.52</v>
       </c>
     </row>
@@ -2837,84 +2942,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D2">
         <v>103.65</v>
@@ -2979,13 +3084,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <v>61.83</v>
@@ -3050,13 +3155,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D4">
         <v>84.90000000000001</v>
@@ -3121,13 +3226,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <v>57</v>
@@ -3192,13 +3297,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D6">
         <v>130.74</v>
@@ -3263,13 +3368,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>80</v>
       </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <v>47.51</v>
@@ -3334,13 +3439,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <v>106.43</v>
@@ -3405,13 +3510,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <v>53.19</v>
@@ -3476,13 +3581,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D10">
         <v>91.89</v>
@@ -3547,13 +3652,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <v>29.72</v>
@@ -3618,13 +3723,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D12">
         <v>104.53</v>
@@ -3689,13 +3794,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D13">
         <v>63.59</v>
@@ -3760,13 +3865,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D14">
         <v>118.38</v>
@@ -3831,13 +3936,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D15">
         <v>52.79</v>
@@ -3902,13 +4007,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D16">
         <v>108.86</v>
@@ -3973,13 +4078,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
         <v>82</v>
       </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D17">
         <v>65.91</v>
@@ -4044,13 +4149,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
         <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
       </c>
       <c r="D18">
         <v>85.34999999999999</v>
@@ -4115,13 +4220,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D19">
         <v>57.15</v>
@@ -4186,13 +4291,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D20">
         <v>97.69</v>
@@ -4257,13 +4362,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D21">
         <v>65.14</v>
@@ -4328,13 +4433,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D22">
         <v>63.43</v>
@@ -4399,13 +4504,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
         <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" t="s">
-        <v>94</v>
       </c>
       <c r="D23">
         <v>73.44</v>
@@ -4470,13 +4575,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D24">
         <v>82.86</v>
@@ -4541,13 +4646,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D25">
         <v>71.12</v>
@@ -4612,13 +4717,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D26">
         <v>106.11</v>
@@ -4683,13 +4788,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D27">
         <v>54.38</v>
@@ -4754,13 +4859,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
         <v>85</v>
-      </c>
-      <c r="B28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" t="s">
-        <v>95</v>
       </c>
       <c r="D28">
         <v>103.79</v>
@@ -4825,13 +4930,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D29">
         <v>79.63</v>
@@ -4896,13 +5001,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D30">
         <v>103.75</v>
@@ -4967,13 +5072,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D31">
         <v>61.09</v>
@@ -5038,13 +5143,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D32">
         <v>100.93</v>
@@ -5109,13 +5214,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
         <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
       </c>
       <c r="D33">
         <v>66.8</v>
@@ -5180,13 +5285,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D34">
         <v>49.29</v>
@@ -5251,13 +5356,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D35">
         <v>51.43</v>
@@ -5322,13 +5427,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D36">
         <v>78.37</v>
@@ -5393,13 +5498,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D37">
         <v>81.92</v>
@@ -5464,13 +5569,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D38">
         <v>80.03</v>
@@ -5535,13 +5640,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D39">
         <v>70.29000000000001</v>
@@ -5606,13 +5711,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D40">
         <v>73.56999999999999</v>
@@ -5682,108 +5787,111 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
         <v>171.51</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>76.81</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>74.94</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>74.72</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>50.61</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>44.78</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>43.69</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>43.56</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>29.5</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>26.9</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>23.99</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
@@ -5791,559 +5899,589 @@
         <v>0</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>100</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
         <v>234.45</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>132.78</v>
-      </c>
-      <c r="D3">
-        <v>129.99</v>
       </c>
       <c r="E3">
         <v>129.99</v>
       </c>
       <c r="F3">
+        <v>129.99</v>
+      </c>
+      <c r="G3">
         <v>89.33</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>56.63</v>
-      </c>
-      <c r="H3">
-        <v>55.44</v>
       </c>
       <c r="I3">
         <v>55.44</v>
       </c>
       <c r="J3">
+        <v>55.44</v>
+      </c>
+      <c r="K3">
         <v>38.1</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>32.42</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>29.7</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>1.67</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1.62</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>98.33</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
         <v>268.38</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>151.36</v>
-      </c>
-      <c r="D4">
-        <v>145.55</v>
       </c>
       <c r="E4">
         <v>145.55</v>
       </c>
       <c r="F4">
+        <v>145.55</v>
+      </c>
+      <c r="G4">
         <v>101.57</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>56.39</v>
-      </c>
-      <c r="H4">
-        <v>54.23</v>
       </c>
       <c r="I4">
         <v>54.23</v>
       </c>
       <c r="J4">
+        <v>54.23</v>
+      </c>
+      <c r="K4">
         <v>37.84</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>27.14</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>24.65</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>2.46</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2.32</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>97.54000000000001</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
         <v>39.94</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>19.21</v>
-      </c>
-      <c r="D5">
-        <v>17.44</v>
       </c>
       <c r="E5">
         <v>17.44</v>
       </c>
       <c r="F5">
+        <v>17.44</v>
+      </c>
+      <c r="G5">
         <v>10.08</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>48.1</v>
-      </c>
-      <c r="H5">
-        <v>43.67</v>
       </c>
       <c r="I5">
         <v>43.67</v>
       </c>
       <c r="J5">
+        <v>43.67</v>
+      </c>
+      <c r="K5">
         <v>25.23</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>18.31</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>16.07</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>15.36</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>13.07</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>84.64</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
         <v>46.51</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>16.78</v>
-      </c>
-      <c r="D6">
-        <v>13.48</v>
       </c>
       <c r="E6">
         <v>13.48</v>
       </c>
       <c r="F6">
+        <v>13.48</v>
+      </c>
+      <c r="G6">
         <v>9.220000000000001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>36.07</v>
-      </c>
-      <c r="H6">
-        <v>28.97</v>
       </c>
       <c r="I6">
         <v>28.97</v>
       </c>
       <c r="J6">
+        <v>28.97</v>
+      </c>
+      <c r="K6">
         <v>19.81</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>16.67</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>12.98</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>81.34999999999999</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>59.88</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>18.65</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
         <v>47.76</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>16.66</v>
-      </c>
-      <c r="D7">
-        <v>13.28</v>
       </c>
       <c r="E7">
         <v>13.28</v>
       </c>
       <c r="F7">
+        <v>13.28</v>
+      </c>
+      <c r="G7">
         <v>8.98</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>34.88</v>
-      </c>
-      <c r="H7">
-        <v>27.8</v>
       </c>
       <c r="I7">
         <v>27.8</v>
       </c>
       <c r="J7">
+        <v>27.8</v>
+      </c>
+      <c r="K7">
         <v>18.79</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>10.17</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>8.66</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>27.85</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>20.23</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>72.15000000000001</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1259.4</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>10.79</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
         <v>42.66</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>17.83</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>13.43</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>12.8</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>8.44</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>41.81</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>31.48</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>30.01</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>19.78</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>8.710000000000001</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>7.88</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>29.59</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>19.44</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>70.41</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1608.15</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>12.86</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
         <v>44.93</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>21.82</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>18</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>16.94</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>11.21</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>48.57</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>40.07</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>37.69</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>24.94</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>10.7</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>9.93</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>22.24</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>16.59</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>77.76000000000001</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1861.16</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>12.12</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
         <v>44.34</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>22.95</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>19.61</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>18.29</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>11.9</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>51.74</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>44.22</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>41.24</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>26.83</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>10.56</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>9.789999999999999</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>25.17</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>19.66</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>74.83</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1462.35</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>9.029999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
         <v>44.14</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>19.38</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>16.01</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>15.64</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>11.47</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>43.9</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>36.25</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>35.44</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>25.98</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>11.36</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>10.52</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>52.31</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>40.41</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>47.69</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>448.14</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>3.6</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
         <v>51.95</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>25.75</v>
-      </c>
-      <c r="D12">
-        <v>22.71</v>
       </c>
       <c r="E12">
         <v>22.71</v>
       </c>
       <c r="F12">
+        <v>22.71</v>
+      </c>
+      <c r="G12">
         <v>16.63</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>49.56</v>
-      </c>
-      <c r="H12">
-        <v>43.72</v>
       </c>
       <c r="I12">
         <v>43.72</v>
       </c>
       <c r="J12">
+        <v>43.72</v>
+      </c>
+      <c r="K12">
         <v>32.01</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>14.12</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>12.85</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
         <v>0</v>
       </c>
@@ -6354,177 +6492,189 @@
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>1120.68</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>6.78</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
         <v>58.88</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>21.55</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>18.55</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>17.85</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>13.48</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>36.59</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>31.5</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>30.32</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>22.89</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>12.46</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>10.92</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>29.62</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>24.23</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>70.38</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>970.77</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>7.77</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
         <v>52.4</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>4.74</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.73</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.75</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.45</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>9.050000000000001</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3.3</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3.34</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2.76</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1.83</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1.56</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>339.09</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>110.21</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-239.09</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>696.33</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>27.65</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
         <v>54.52</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>7.25</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>4.89</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4.87</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4.5</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>13.28</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>8.970000000000001</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>8.92</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>8.25</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>5.5</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>4.69</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>55.13</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>36.18</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>44.87</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2482.01</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>64.02</v>
       </c>
     </row>
